--- a/data/trans_camb/P2A_fisi_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,65</t>
+          <t>2,1; 7,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,98</t>
+          <t>-2,45; 3,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,94; 18,2</t>
+          <t>11,04; 18,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,07</t>
+          <t>0,83; 6,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,34</t>
+          <t>0,58; 6,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,33; 17,35</t>
+          <t>11,29; 17,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,98</t>
+          <t>2,12; 5,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 3,89</t>
+          <t>-0,09; 4,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,01; 16,58</t>
+          <t>12,02; 16,65</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,41; 105,95</t>
+          <t>20,03; 113,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 43,26</t>
+          <t>-26,28; 43,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>115,99; 254,22</t>
+          <t>115,88; 256,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,83; 71,84</t>
+          <t>7,66; 73,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 71,65</t>
+          <t>4,94; 70,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>106,58; 208,03</t>
+          <t>104,52; 207,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,3; 73,74</t>
+          <t>22,04; 71,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 48,0</t>
+          <t>-0,96; 48,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>121,09; 205,78</t>
+          <t>121,15; 203,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,92</t>
+          <t>0,15; 2,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,7</t>
+          <t>-0,09; 2,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,08</t>
+          <t>4,62; 8,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,91</t>
+          <t>1,73; 4,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,05</t>
+          <t>-0,59; 2,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 24,33</t>
+          <t>4,36; 26,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,44</t>
+          <t>1,32; 3,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,94</t>
+          <t>0,06; 1,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 18,9</t>
+          <t>5,14; 16,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 91,44</t>
+          <t>1,31; 94,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 83,75</t>
+          <t>-2,28; 83,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>104,2; 249,76</t>
+          <t>106,62; 261,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,13; 157,31</t>
+          <t>33,6; 147,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 64,53</t>
+          <t>-12,59; 68,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>101,94; 678,68</t>
+          <t>101,2; 684,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,17; 100,92</t>
+          <t>31,26; 105,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 58,11</t>
+          <t>1,98; 60,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>130,09; 492,28</t>
+          <t>125,29; 431,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,8</t>
+          <t>-1,39; 3,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,42</t>
+          <t>-1,59; 3,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 7,31</t>
+          <t>1,24; 6,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 3,7</t>
+          <t>-2,14; 3,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,17</t>
+          <t>-3,21; 2,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 3,1</t>
+          <t>-1,99; 2,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,87</t>
+          <t>-1,05; 2,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,03</t>
+          <t>-1,48; 2,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,12</t>
+          <t>0,52; 4,17</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 222,7</t>
+          <t>-38,05; 194,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 209,93</t>
+          <t>-39,79; 192,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,95; 415,67</t>
+          <t>25,29; 392,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 123,89</t>
+          <t>-38,05; 127,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 78,27</t>
+          <t>-53,48; 74,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,05; 105,08</t>
+          <t>-31,88; 97,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 104,12</t>
+          <t>-25,71; 110,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 76,87</t>
+          <t>-33,49; 73,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,57; 153,81</t>
+          <t>8,51; 153,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,63</t>
+          <t>1,13; 3,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,63</t>
+          <t>-0,56; 1,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,04; 7,79</t>
+          <t>5,09; 8,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,24</t>
+          <t>1,46; 4,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,92</t>
+          <t>-0,49; 1,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,82; 15,89</t>
+          <t>4,9; 19,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,5</t>
+          <t>1,79; 3,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,47</t>
+          <t>-0,17; 1,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,52; 12,86</t>
+          <t>5,49; 12,89</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,53; 80,86</t>
+          <t>20,67; 78,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 37,05</t>
+          <t>-10,27; 39,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>89,38; 173,39</t>
+          <t>91,26; 178,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,51; 76,18</t>
+          <t>22,03; 72,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 34,39</t>
+          <t>-7,1; 34,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>74,28; 259,28</t>
+          <t>75,9; 312,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,8; 67,87</t>
+          <t>29,26; 65,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 27,96</t>
+          <t>-2,82; 26,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>94,64; 237,47</t>
+          <t>93,14; 227,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_fisi_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,42</t>
+          <t>14,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,22 +657,22 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>13,92</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,05</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>14,15</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,05</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>14,32</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,04; 18,35</t>
+          <t>11,0; 18,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 17,17</t>
+          <t>11,13; 16,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,02; 16,65</t>
+          <t>11,85; 16,43</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>175,17%</t>
+          <t>174,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>147,2%</t>
+          <t>144,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>159,02%</t>
+          <t>157,14%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>115,88; 256,12</t>
+          <t>115,22; 256,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>104,52; 207,96</t>
+          <t>102,2; 202,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>121,15; 203,79</t>
+          <t>119,34; 199,79</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,32</t>
+          <t>12,69</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>8,8</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,03</t>
+          <t>2,28; 6,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 26,16</t>
+          <t>3,82; 39,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 16,11</t>
+          <t>4,21; 24,31</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>170,03%</t>
+          <t>133,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>238,35%</t>
+          <t>324,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>205,97%</t>
+          <t>230,19%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>106,62; 261,13</t>
+          <t>56,69; 212,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>101,2; 684,08</t>
+          <t>89,43; 1022,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>125,29; 431,49</t>
+          <t>104,08; 648,93</t>
         </is>
       </c>
     </row>
@@ -1074,37 +1074,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,36</t>
         </is>
       </c>
     </row>
@@ -1127,37 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,8</t>
+          <t>1,37; 7,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,95</t>
+          <t>-2,63; 3,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 2,18</t>
+          <t>-3,71; 1,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,91</t>
+          <t>-2,4; 2,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,96</t>
+          <t>-1,23; 2,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,0</t>
+          <t>-1,71; 1,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,17</t>
+          <t>0,51; 4,17</t>
         </is>
       </c>
     </row>
@@ -1180,37 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>145,24%</t>
+          <t>152,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,65%</t>
+          <t>-17,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>67,8%</t>
+          <t>63,24%</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,29; 392,49</t>
+          <t>29,24; 405,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,05; 127,65</t>
+          <t>-43,67; 98,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,48; 74,94</t>
+          <t>-56,31; 54,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,88; 97,31</t>
+          <t>-35,75; 75,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 110,49</t>
+          <t>-28,92; 93,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 73,35</t>
+          <t>-37,38; 63,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,51; 153,19</t>
+          <t>7,98; 141,76</t>
         </is>
       </c>
     </row>
@@ -1290,37 +1290,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>7,67</t>
         </is>
       </c>
     </row>
@@ -1343,37 +1343,37 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,09; 8,07</t>
+          <t>3,21; 7,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,09</t>
+          <t>1,37; 4,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,95</t>
+          <t>-0,55; 1,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,9; 19,44</t>
+          <t>4,27; 29,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,43</t>
+          <t>1,76; 3,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,36</t>
+          <t>-0,21; 1,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,49; 12,89</t>
+          <t>4,7; 17,5</t>
         </is>
       </c>
     </row>
@@ -1396,37 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129,53%</t>
+          <t>110,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,62%</t>
+          <t>45,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>126,12%</t>
+          <t>155,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>45,81%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>128,61%</t>
+          <t>136,08%</t>
         </is>
       </c>
     </row>
@@ -1449,37 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>91,26; 178,41</t>
+          <t>63,81; 156,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22,03; 72,85</t>
+          <t>19,71; 70,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 34,86</t>
+          <t>-8,54; 33,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>75,9; 312,28</t>
+          <t>66,97; 488,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,26; 65,88</t>
+          <t>28,92; 65,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 26,36</t>
+          <t>-3,33; 25,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>93,14; 227,56</t>
+          <t>80,83; 307,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_fisi_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Estudios-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,84</t>
+          <t>2,26; 7,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,02</t>
+          <t>-2,46; 2,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,0; 18,44</t>
+          <t>11,06; 18,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 6,24</t>
+          <t>1,01; 5,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,13</t>
+          <t>0,82; 6,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,13; 16,84</t>
+          <t>10,82; 16,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,92</t>
+          <t>2,16; 6,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 4,07</t>
+          <t>0,12; 3,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,85; 16,43</t>
+          <t>11,97; 16,5</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,03; 113,68</t>
+          <t>24,32; 110,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 43,01</t>
+          <t>-26,8; 41,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>115,22; 256,67</t>
+          <t>113,98; 263,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,66; 73,59</t>
+          <t>7,56; 70,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,94; 70,7</t>
+          <t>7,12; 75,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>102,2; 202,52</t>
+          <t>97,71; 191,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,04; 71,57</t>
+          <t>21,69; 73,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 48,14</t>
+          <t>1,38; 45,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>119,34; 199,79</t>
+          <t>121,66; 202,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,95</t>
+          <t>0,11; 3,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,59</t>
+          <t>0,03; 2,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,63</t>
+          <t>2,31; 6,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,82</t>
+          <t>1,66; 4,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,24</t>
+          <t>-0,56; 2,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 39,49</t>
+          <t>3,77; 36,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,48</t>
+          <t>1,28; 3,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,98</t>
+          <t>0,06; 2,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 24,31</t>
+          <t>4,2; 22,75</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 94,64</t>
+          <t>1,65; 97,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 83,04</t>
+          <t>-0,32; 86,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,69; 212,35</t>
+          <t>55,75; 216,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,6; 147,12</t>
+          <t>35,73; 148,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 68,34</t>
+          <t>-12,79; 74,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,43; 1022,38</t>
+          <t>89,1; 1103,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,26; 105,8</t>
+          <t>30,3; 99,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 60,85</t>
+          <t>0,16; 58,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>104,08; 648,93</t>
+          <t>105,1; 662,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 3,56</t>
+          <t>-1,47; 3,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,01</t>
+          <t>-1,66; 2,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,11</t>
+          <t>1,71; 7,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,43</t>
+          <t>-2,43; 3,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 1,79</t>
+          <t>-3,5; 1,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,58</t>
+          <t>-2,37; 2,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,78</t>
+          <t>-1,14; 2,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,74</t>
+          <t>-1,73; 1,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,17</t>
+          <t>0,47; 4,23</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,05; 194,95</t>
+          <t>-40,4; 186,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 192,99</t>
+          <t>-44,32; 163,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,24; 405,29</t>
+          <t>33,35; 395,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,67; 98,59</t>
+          <t>-41,84; 103,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,31; 54,71</t>
+          <t>-54,54; 57,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,75; 75,61</t>
+          <t>-36,5; 77,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 93,22</t>
+          <t>-24,36; 93,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,38; 63,52</t>
+          <t>-37,82; 59,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,98; 141,76</t>
+          <t>9,21; 147,6</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,56</t>
+          <t>1,15; 3,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,69</t>
+          <t>-0,52; 1,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,21; 7,12</t>
+          <t>3,15; 7,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,04</t>
+          <t>1,42; 4,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 1,89</t>
+          <t>-0,67; 1,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,27; 29,47</t>
+          <t>4,2; 25,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,4</t>
+          <t>1,69; 3,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,33</t>
+          <t>-0,22; 1,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,7; 17,5</t>
+          <t>4,64; 17,21</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20,67; 78,93</t>
+          <t>20,8; 81,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 39,36</t>
+          <t>-9,52; 37,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>63,81; 156,41</t>
+          <t>62,09; 159,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>19,71; 70,67</t>
+          <t>19,92; 72,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 33,44</t>
+          <t>-9,75; 31,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,97; 488,84</t>
+          <t>65,35; 427,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,92; 65,28</t>
+          <t>28,87; 66,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 25,72</t>
+          <t>-3,6; 26,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>80,83; 307,43</t>
+          <t>78,87; 304,64</t>
         </is>
       </c>
     </row>
